--- a/Table/Table/SelectServerList.xlsx
+++ b/Table/Table/SelectServerList.xlsx
@@ -753,12 +753,13 @@
   <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
